--- a/biology/Botanique/Nardostachys_grandiflora/Nardostachys_grandiflora.xlsx
+++ b/biology/Botanique/Nardostachys_grandiflora/Nardostachys_grandiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Nardostachys comprend plusieurs espèces de plantes herbacées de la famille des Valérianacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le nard indien ou nard de l'Himalaya : Nardostachys grandiflora DC. (= Nardostachys jatamansi auct., Nardostachys chinensis Batalin), à partir duquel est extrait le nard, un parfum.
 La valériane indienne, valériane des Indes, ou valériane du Bengale : Nardostachys jatamansi (Jones) DC. (= Valeriana jatamansi Jones ex Roxb.)</t>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nardostachys grandiflora DC. est native de Chine (Gansu, Qinghai, Sichuan, Xizang, Yunnan), du Bhoutan, de l'Inde (Sikkim, Uttar Pradesh), et du Népal[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nardostachys grandiflora DC. est native de Chine (Gansu, Qinghai, Sichuan, Xizang, Yunnan), du Bhoutan, de l'Inde (Sikkim, Uttar Pradesh), et du Népal.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) Référence GRIN : espèce Nardostachys grandiflora DC.
